--- a/medicine/Hématologie/Protéinémie/Protéinémie.xlsx
+++ b/medicine/Hématologie/Protéinémie/Protéinémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9in%C3%A9mie</t>
+          <t>Protéinémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La protéinémie est la mesure des protéines totales dans le sérum.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9in%C3%A9mie</t>
+          <t>Protéinémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Valeur Normale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Valeur normale de protéinémie : 64 - 82 g/L
 À elle seule, elle n'a que peu d'intérêt, sauf si elle est combinée à une électrophorèse des protéines :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prot%C3%A9in%C3%A9mie</t>
+          <t>Protéinémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hypoprotéinémie
-L'hypoprotéinémie est observée au cours des maladies hépatiques telles que les cirrhoses ou les hépatites grave (le foie n'arrivant plus à synthétiser une quantité suffisante de protéine), les syndromes néphrotiques, les brûlures étendues, les états de dénutrition.
-Hyperprotéinémie
-L'hyperprotéinémie peut s'observer lors de déshydratations importantes (il y a alors une hémoconcentration de protéines), le diabète insipide, certaines maladies générales, produisant une quantité importante de protéines, souvent anormale, les myélomes, ou la maladie de Waldenström.
+          <t>Hypoprotéinémie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypoprotéinémie est observée au cours des maladies hépatiques telles que les cirrhoses ou les hépatites grave (le foie n'arrivant plus à synthétiser une quantité suffisante de protéine), les syndromes néphrotiques, les brûlures étendues, les états de dénutrition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Protéinémie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prot%C3%A9in%C3%A9mie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Valeurs pathologiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hyperprotéinémie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyperprotéinémie peut s'observer lors de déshydratations importantes (il y a alors une hémoconcentration de protéines), le diabète insipide, certaines maladies générales, produisant une quantité importante de protéines, souvent anormale, les myélomes, ou la maladie de Waldenström.
 </t>
         </is>
       </c>
